--- a/ig/r4-ig-starter/branch/main/StructureDefinition-veterinarian.xlsx
+++ b/ig/r4-ig-starter/branch/main/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T01:58:43+00:00</t>
+    <t>2022-05-26T06:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/r4-ig-starter/branch/main/StructureDefinition-veterinarian.xlsx
+++ b/ig/r4-ig-starter/branch/main/StructureDefinition-veterinarian.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T06:37:01+00:00</t>
+    <t>2022-05-26T08:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
